--- a/Experimentální data.xlsx
+++ b/Experimentální data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\extended boolean model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD10858-4C76-4DAC-884C-40C5171757C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF0AE88-CFB3-4799-8352-8DC5A2AB193D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0F8D9F3-4079-462F-A87E-3CE0139D697F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Velikost kolekce</t>
   </si>
@@ -50,12 +50,27 @@
   <si>
     <t>Průměr</t>
   </si>
+  <si>
+    <t>Inverted Index</t>
+  </si>
+  <si>
+    <t>Term by document matrix</t>
+  </si>
+  <si>
+    <t>Doba vytvoření term by document matice (ms)</t>
+  </si>
+  <si>
+    <t>Rychlost dotazu 'shakespeare and not hamlet'</t>
+  </si>
+  <si>
+    <t>Rychlost dotazu (ms)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +82,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -93,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -120,21 +144,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -148,21 +157,6 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -302,60 +296,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -457,7 +542,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Inverted index</c:v>
+            <c:strRef>
+              <c:f>List1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inverted Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -473,7 +566,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>List1!$A$3:$A$10</c:f>
+              <c:f>List1!$A$4:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -506,11 +599,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>List1!$E$3:$E$10</c:f>
+              <c:f>List1!$E$4:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -541,6 +634,72 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CAC2-4B80-BA57-C3DFA10C11CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Term by document matrix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$E$17:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>259.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>537.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>882.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1555.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11366.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34832.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72661.666666666672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF82-4E36-A584-07F625996396}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -866,7 +1025,596 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>Rychlosti tvoření struktur</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inverted Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$E$4:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>502.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>906.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1455</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10910</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73047.333333333328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C9E-4D88-9F19-77CEA5C5FC87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="415795776"/>
+        <c:axId val="415782328"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>List1!$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Term by document matrix</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>List1!$E$17:$E$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0.00</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0" formatCode="0.00">
+                        <c:v>259.66666666666669</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>537.33333333333337</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>882.33333333333337</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1555.3333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4496</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>11366.666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>34832.666666666664</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>72661.666666666672</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-8C9E-4D88-9F19-77CEA5C5FC87}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="415795776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Velikost</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" baseline="0"/>
+                  <a:t> kolekce</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415782328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="415782328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Rychlost dotazu</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415795776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1422,20 +2170,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>150202</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19416</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>128221</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>350960</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>74368</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>431555</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>111003</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1455,6 +2719,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>725365</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>608134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>376603</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>91586</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graf 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEDCE1AF-E52F-415F-8AA4-4DCD8CFC9EC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1760,230 +3062,676 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5093817-46FD-4800-8D97-FA78682894F8}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9">
-        <v>254</v>
-      </c>
-      <c r="C3" s="9">
-        <v>350</v>
-      </c>
-      <c r="D3" s="9">
-        <v>260</v>
-      </c>
-      <c r="E3" s="10">
-        <v>288</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.30967741935483872</v>
-      </c>
+      <c r="A3" s="19"/>
+      <c r="B3" s="24">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24">
+        <v>2</v>
+      </c>
+      <c r="D3" s="24">
+        <v>3</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>50</v>
-      </c>
-      <c r="B4" s="13">
-        <v>475</v>
-      </c>
-      <c r="C4" s="13">
-        <v>489</v>
-      </c>
-      <c r="D4" s="13">
-        <v>544</v>
-      </c>
-      <c r="E4" s="14">
-        <v>502.66666666666669</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0.10810035842293908</v>
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>254</v>
+      </c>
+      <c r="C4" s="2">
+        <v>350</v>
+      </c>
+      <c r="D4" s="2">
+        <v>260</v>
+      </c>
+      <c r="E4" s="3">
+        <f>SUM(B4:D4) / 3</f>
+        <v>288</v>
+      </c>
+      <c r="F4" s="4">
+        <f>E4 / 93 / A4</f>
+        <v>0.30967741935483872</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>100</v>
-      </c>
-      <c r="B5" s="17">
-        <v>884</v>
-      </c>
-      <c r="C5" s="17">
-        <v>841</v>
-      </c>
-      <c r="D5" s="17">
-        <v>994</v>
-      </c>
-      <c r="E5" s="18">
-        <v>906.33333333333337</v>
-      </c>
-      <c r="F5" s="19">
-        <v>9.7455197132616495E-2</v>
+      <c r="A5" s="5">
+        <v>50</v>
+      </c>
+      <c r="B5" s="6">
+        <v>475</v>
+      </c>
+      <c r="C5" s="6">
+        <v>489</v>
+      </c>
+      <c r="D5" s="6">
+        <v>544</v>
+      </c>
+      <c r="E5" s="22">
+        <f t="shared" ref="E5:E11" si="0">SUM(B5:D5) / 3</f>
+        <v>502.66666666666669</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:F12" si="1">E5 / 93 / A5</f>
+        <v>0.10810035842293907</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>200</v>
-      </c>
-      <c r="B6" s="20">
-        <v>1399</v>
-      </c>
-      <c r="C6" s="20">
-        <v>1543</v>
-      </c>
-      <c r="D6" s="20">
-        <v>1423</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1455</v>
-      </c>
-      <c r="F6" s="15">
-        <v>7.8225806451612909E-2</v>
+      <c r="A6" s="8">
+        <v>100</v>
+      </c>
+      <c r="B6" s="9">
+        <v>884</v>
+      </c>
+      <c r="C6" s="9">
+        <v>841</v>
+      </c>
+      <c r="D6" s="9">
+        <v>994</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="0"/>
+        <v>906.33333333333337</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="1"/>
+        <v>9.7455197132616481E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>500</v>
-      </c>
-      <c r="B7" s="17">
-        <v>3938</v>
-      </c>
-      <c r="C7" s="17">
-        <v>4138</v>
-      </c>
-      <c r="D7" s="17">
-        <v>4245</v>
-      </c>
-      <c r="E7" s="18">
-        <v>4107</v>
-      </c>
-      <c r="F7" s="19">
-        <v>8.8322580645161297E-2</v>
+      <c r="A7" s="5">
+        <v>200</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1399</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1543</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1423</v>
+      </c>
+      <c r="E7" s="22">
+        <f t="shared" si="0"/>
+        <v>1455</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="1"/>
+        <v>7.8225806451612895E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>1000</v>
-      </c>
-      <c r="B8" s="20">
-        <v>10826</v>
-      </c>
-      <c r="C8" s="20">
-        <v>11083</v>
-      </c>
-      <c r="D8" s="20">
-        <v>10821</v>
-      </c>
-      <c r="E8" s="14">
-        <v>10910</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0.117311827956989</v>
+      <c r="A8" s="8">
+        <v>500</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3938</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4138</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4245</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="0"/>
+        <v>4107</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="1"/>
+        <v>8.8322580645161297E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>2000</v>
-      </c>
-      <c r="B9" s="17">
-        <v>34455</v>
-      </c>
-      <c r="C9" s="17">
-        <v>34673</v>
-      </c>
-      <c r="D9" s="17">
-        <v>34618</v>
-      </c>
-      <c r="E9" s="18">
-        <v>34582</v>
-      </c>
-      <c r="F9" s="19">
-        <v>0.1859247311827957</v>
+      <c r="A9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B9" s="11">
+        <v>10826</v>
+      </c>
+      <c r="C9" s="11">
+        <v>11083</v>
+      </c>
+      <c r="D9" s="11">
+        <v>10821</v>
+      </c>
+      <c r="E9" s="22">
+        <f t="shared" si="0"/>
+        <v>10910</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11731182795698925</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="8">
+        <v>2000</v>
+      </c>
+      <c r="B10" s="9">
+        <v>34455</v>
+      </c>
+      <c r="C10" s="9">
+        <v>34673</v>
+      </c>
+      <c r="D10" s="9">
+        <v>34618</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" si="0"/>
+        <v>34582</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="1"/>
+        <v>0.1859247311827957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>3000</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B11" s="11">
         <v>72901</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C11" s="11">
         <v>73978</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D11" s="11">
         <v>72263</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E11" s="22">
+        <f t="shared" si="0"/>
         <v>73047.333333333328</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F11" s="7">
+        <f t="shared" si="1"/>
         <v>0.26181839904420551</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24">
-        <f>AVERAGE(F3:F10)</f>
-        <v>0.15585454002389484</v>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15">
+        <f>AVERAGE(F4:F11)</f>
+        <v>0.15585454002389487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="24">
+        <v>1</v>
+      </c>
+      <c r="C16" s="24">
+        <v>2</v>
+      </c>
+      <c r="D16" s="24">
+        <v>3</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>269</v>
+      </c>
+      <c r="C17" s="2">
+        <v>252</v>
+      </c>
+      <c r="D17" s="2">
+        <v>258</v>
+      </c>
+      <c r="E17" s="3">
+        <f>SUM(B17:D17) / 3</f>
+        <v>259.66666666666669</v>
+      </c>
+      <c r="F17" s="4">
+        <f>E17 / 93 / A17</f>
+        <v>0.27921146953405018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>50</v>
+      </c>
+      <c r="B18" s="6">
+        <v>570</v>
+      </c>
+      <c r="C18" s="6">
+        <v>477</v>
+      </c>
+      <c r="D18" s="6">
+        <v>565</v>
+      </c>
+      <c r="E18" s="22">
+        <f t="shared" ref="E18:E24" si="2">SUM(B18:D18) / 3</f>
+        <v>537.33333333333337</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" ref="F18:F24" si="3">E18 / 93 / A18</f>
+        <v>0.11555555555555558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>100</v>
+      </c>
+      <c r="B19" s="9">
+        <v>930</v>
+      </c>
+      <c r="C19" s="9">
+        <v>856</v>
+      </c>
+      <c r="D19" s="9">
+        <v>861</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" si="2"/>
+        <v>882.33333333333337</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="3"/>
+        <v>9.487455197132616E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>200</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1531</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1579</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1556</v>
+      </c>
+      <c r="E20" s="22">
+        <f t="shared" si="2"/>
+        <v>1555.3333333333333</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="3"/>
+        <v>8.3620071684587807E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>500</v>
+      </c>
+      <c r="B21" s="9">
+        <v>4448</v>
+      </c>
+      <c r="C21" s="9">
+        <v>4319</v>
+      </c>
+      <c r="D21" s="9">
+        <v>4721</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" si="2"/>
+        <v>4496</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="3"/>
+        <v>9.6688172043010751E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B22" s="11">
+        <v>11502</v>
+      </c>
+      <c r="C22" s="11">
+        <v>11578</v>
+      </c>
+      <c r="D22" s="11">
+        <v>11020</v>
+      </c>
+      <c r="E22" s="22">
+        <f t="shared" si="2"/>
+        <v>11366.666666666666</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="3"/>
+        <v>0.12222222222222222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>2000</v>
+      </c>
+      <c r="B23" s="9">
+        <v>35709</v>
+      </c>
+      <c r="C23" s="9">
+        <v>34336</v>
+      </c>
+      <c r="D23" s="9">
+        <v>34453</v>
+      </c>
+      <c r="E23" s="21">
+        <f t="shared" si="2"/>
+        <v>34832.666666666664</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="3"/>
+        <v>0.18727240143369175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>3000</v>
+      </c>
+      <c r="B24" s="11">
+        <v>74382</v>
+      </c>
+      <c r="C24" s="11">
+        <v>72256</v>
+      </c>
+      <c r="D24" s="11">
+        <v>71347</v>
+      </c>
+      <c r="E24" s="22">
+        <f t="shared" si="2"/>
+        <v>72661.666666666672</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="3"/>
+        <v>0.26043608124253287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15">
+        <f>AVERAGE(F17:F24)</f>
+        <v>0.15498506571087217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="33"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="32"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="24">
+        <v>1</v>
+      </c>
+      <c r="C29" s="24">
+        <v>2</v>
+      </c>
+      <c r="D29" s="24">
+        <v>3</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="32"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="E30" s="29">
+        <f>SUM(B30:D30) / 3</f>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>50</v>
+      </c>
+      <c r="B31" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="C31" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="D31" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="E31" s="30">
+        <f t="shared" ref="E31:E37" si="4">SUM(B31:D31) / 3</f>
+        <v>6.1000000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>100</v>
+      </c>
+      <c r="B32" s="9">
+        <v>10.9</v>
+      </c>
+      <c r="C32" s="9">
+        <v>6</v>
+      </c>
+      <c r="D32" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E32" s="31">
+        <f t="shared" si="4"/>
+        <v>7.2666666666666657</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>200</v>
+      </c>
+      <c r="B33" s="11">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C33" s="11">
+        <v>5</v>
+      </c>
+      <c r="D33" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="E33" s="30">
+        <f>SUM(B33:D33) / 3</f>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>500</v>
+      </c>
+      <c r="B34" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="C34" s="9">
+        <v>7</v>
+      </c>
+      <c r="D34" s="9">
+        <v>6.7</v>
+      </c>
+      <c r="E34" s="31">
+        <f t="shared" si="4"/>
+        <v>8.9666666666666668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B35" s="11">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C35" s="11">
+        <v>12.6</v>
+      </c>
+      <c r="D35" s="11">
+        <v>14.8</v>
+      </c>
+      <c r="E35" s="30">
+        <f t="shared" si="4"/>
+        <v>15.433333333333332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>2000</v>
+      </c>
+      <c r="B36" s="9">
+        <v>43.9</v>
+      </c>
+      <c r="C36" s="9">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D36" s="9">
+        <v>31.9</v>
+      </c>
+      <c r="E36" s="31">
+        <f t="shared" si="4"/>
+        <v>38.833333333333336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="34">
+        <v>3000</v>
+      </c>
+      <c r="B37" s="35">
+        <v>84.8</v>
+      </c>
+      <c r="C37" s="35">
+        <v>77.7</v>
+      </c>
+      <c r="D37" s="35">
+        <v>79.5</v>
+      </c>
+      <c r="E37" s="36">
+        <f t="shared" si="4"/>
+        <v>80.666666666666671</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
+  <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>